--- a/Dow 30/Boeing/Boeing.xlsx
+++ b/Dow 30/Boeing/Boeing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\Boeing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9070CC9E-9D97-4C0B-B131-C4C8122AEE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32FC537-743D-41C6-B929-75F94D65810E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{DAC388C4-D724-482C-895B-0000854E6AB6}"/>
+    <workbookView xWindow="23880" yWindow="-6750" windowWidth="24240" windowHeight="18240" activeTab="1" xr2:uid="{DAC388C4-D724-482C-895B-0000854E6AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Street Estimates" sheetId="1" r:id="rId1"/>
@@ -197,11 +197,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="0.000%"/>
-    <numFmt numFmtId="183" formatCode="0.0%"/>
-    <numFmt numFmtId="199" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -351,6 +351,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,45 +396,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,40 +749,40 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="7" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="13">
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10">
         <v>1</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="11">
         <v>2</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="11">
         <v>3</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="11">
         <v>4</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="11">
         <v>5</v>
       </c>
     </row>
@@ -827,49 +827,49 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="21">
         <v>10133</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="22">
         <v>11849</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="22">
         <v>-2102</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="22">
         <v>-8167</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="23">
         <v>-687</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="25">
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="21">
         <v>4962</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="22">
         <v>9276</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="22">
         <v>10759</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="22">
         <v>12472</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="22">
         <v>12360</v>
       </c>
     </row>
@@ -877,51 +877,51 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="25">
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="21">
         <v>3208</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="22">
         <v>7583</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="22">
         <v>9258</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="22">
         <v>10702</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="22">
         <v>11377</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="28">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="24">
         <v>1593</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="25">
         <v>5769</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="25">
         <v>7847</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="25">
         <v>9910</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="25">
         <v>10393</v>
       </c>
     </row>
@@ -929,77 +929,77 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="18">
         <f>E6*16.3%</f>
         <v>1651.6790000000001</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="15">
         <f>F6*9.9%</f>
         <v>1173.0510000000002</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="26">
         <v>-1623</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="26">
         <v>-2535</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="26">
         <v>-743</v>
       </c>
       <c r="J10" s="5">
         <v>0</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="14">
         <f>5%*K8</f>
         <v>379.15000000000003</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="20">
         <f>10%*L8</f>
         <v>925.80000000000007</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="20">
         <f>15%*M8</f>
         <v>1605.3</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="20">
         <f>20%*N8</f>
         <v>2275.4</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="31">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="27">
         <v>2047</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="26">
         <v>2114</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="26">
         <v>2271</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="26">
         <v>2246</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="26">
         <v>2144</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="27">
         <v>2042</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="26">
         <v>2092</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="26">
         <v>2603</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="26">
         <v>3391</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="26">
         <v>2477</v>
       </c>
     </row>
@@ -1007,49 +1007,49 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="21">
         <v>1739</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="22">
         <v>1722</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="22">
         <v>1834</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="22">
         <v>1303</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="22">
         <v>980</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="25">
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="21">
         <v>1704</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="22">
         <v>2156</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="22">
         <v>2393</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="22">
         <v>2375</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="22">
         <v>2550</v>
       </c>
     </row>
@@ -1057,24 +1057,24 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="25">
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="21">
         <v>1367</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="22">
         <v>1612</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="22">
         <v>1756</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="22">
         <v>1823</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="22">
         <v>2380</v>
       </c>
     </row>
@@ -1082,65 +1082,65 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="25">
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="21">
         <v>1099</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="22">
         <v>1200</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="22">
         <v>1200</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="22">
         <v>1200</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="22">
         <v>2209</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="32">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="28">
         <v>-989</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="29">
         <v>-366</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="29">
         <v>-1979</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="29">
         <v>-9833</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="29">
         <v>-11694</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="28">
         <f>I16-(I16*21.2%)</f>
         <v>-9214.8719999999994</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="29">
         <f>J16-(J16*20.9%)</f>
         <v>-7288.9637519999997</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="29">
         <f>K16-(K16*5.6%)</f>
         <v>-6880.7817818879994</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="29">
         <f>L16-(L16*10.9%)</f>
         <v>-6130.7765676622075</v>
       </c>
-      <c r="N16" s="33">
+      <c r="N16" s="29">
         <f>M16-(M16*10.4%)</f>
         <v>-5493.1758046253381</v>
       </c>
@@ -1160,7 +1160,7 @@
   <dimension ref="B2:O45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="H30" sqref="H4:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,33 +1186,33 @@
       <c r="D3" s="1"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
       <c r="I5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="32">
         <v>2017</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="31">
         <v>1</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="31">
         <v>2</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="31">
         <v>3</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N5" s="31">
         <v>4</v>
       </c>
-      <c r="O5" s="35">
+      <c r="O5" s="31">
         <v>5</v>
       </c>
     </row>
@@ -1220,64 +1220,64 @@
       <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="13">
         <f>'Street Estimates'!E6</f>
         <v>10133</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="14">
         <f>'Street Estimates'!J8</f>
         <v>3208</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="14">
         <f>'Street Estimates'!K8</f>
         <v>7583</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="14">
         <f>'Street Estimates'!L8</f>
         <v>9258</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="14">
         <f>'Street Estimates'!M8</f>
         <v>10702</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="14">
         <f>'Street Estimates'!N8</f>
         <v>11377</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
       <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="13">
         <f>-'Street Estimates'!E10</f>
         <v>-1651.6790000000001</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="14">
         <f>'Street Estimates'!J10</f>
         <v>0</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="14">
         <f>-'Street Estimates'!K10</f>
         <v>-379.15000000000003</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="14">
         <f>-'Street Estimates'!L10</f>
         <v>-925.80000000000007</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="14">
         <f>-'Street Estimates'!M10</f>
         <v>-1605.3</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="14">
         <f>-'Street Estimates'!N10</f>
         <v>-2275.4</v>
       </c>
@@ -1286,33 +1286,33 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="33">
         <v>-7.17E-2</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="13">
         <f>'Street Estimates'!E11</f>
         <v>2047</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="14">
         <f>'Street Estimates'!J11</f>
         <v>2042</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="14">
         <f>'Street Estimates'!K11</f>
         <v>2092</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="14">
         <f>'Street Estimates'!L11</f>
         <v>2603</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="14">
         <f>'Street Estimates'!M11</f>
         <v>3391</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="14">
         <f>'Street Estimates'!N11</f>
         <v>2477</v>
       </c>
@@ -1327,27 +1327,27 @@
       <c r="I9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="13">
         <f>-'Street Estimates'!E12</f>
         <v>-1739</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="14">
         <f>-'Street Estimates'!J14</f>
         <v>-1367</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="14">
         <f>-'Street Estimates'!K14</f>
         <v>-1612</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="14">
         <f>-'Street Estimates'!L14</f>
         <v>-1756</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="14">
         <f>-'Street Estimates'!M14</f>
         <v>-1823</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="14">
         <f>-'Street Estimates'!N14</f>
         <v>-2380</v>
       </c>
@@ -1356,33 +1356,33 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="33">
         <v>6.2E-2</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="13">
         <f>'Street Estimates'!E16</f>
         <v>-989</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="14">
         <f>'Street Estimates'!J16</f>
         <v>-9214.8719999999994</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="14">
         <f>'Street Estimates'!K16</f>
         <v>-7288.9637519999997</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="14">
         <f>'Street Estimates'!L16</f>
         <v>-6880.7817818879994</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="14">
         <f>'Street Estimates'!M16</f>
         <v>-6130.7765676622075</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="14">
         <f>'Street Estimates'!N16</f>
         <v>-5493.1758046253381</v>
       </c>
@@ -1391,33 +1391,33 @@
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="33">
         <v>0.14799999999999999</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="16">
         <f>SUM(J6:J10)</f>
         <v>7800.3209999999999</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="17">
         <f>SUM(K6:K10)</f>
         <v>-5331.8719999999994</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="17">
         <f t="shared" ref="L11:O11" si="0">SUM(L6:L10)</f>
         <v>394.88624800000071</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="17">
         <f t="shared" si="0"/>
         <v>2298.4182181120013</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="17">
         <f t="shared" si="0"/>
         <v>4533.9234323377932</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="17">
         <f t="shared" si="0"/>
         <v>3705.4241953746623</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="33">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="33">
         <v>1.37E-2</v>
       </c>
     </row>
@@ -1442,15 +1442,15 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="37">
-        <v>-0.42509999999999998</v>
+      <c r="G15" s="33">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="12">
         <v>-15000</v>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="12">
         <v>59641</v>
       </c>
     </row>
@@ -1476,40 +1476,40 @@
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="33">
         <f>G12+G14*(G15-G12)</f>
-        <v>2.3469240000000002E-2</v>
+        <v>3.0252110000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="37">
         <f>G17/SUM(G16:G17)</f>
         <v>1.3360139781814924</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="42">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="38">
         <f>G16/SUM(G16:G17)</f>
         <v>-0.33601397818149237</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="36">
         <f>G22*G20+G21*G10*(1-G11)</f>
-        <v>6.2687609686162937E-2</v>
+        <v>6.0408470553975045E-2</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -1526,7 +1526,7 @@
       <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="14">
         <f>O6+O8</f>
         <v>13854</v>
       </c>
@@ -1535,31 +1535,31 @@
       <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="20">
         <f>G26*G9</f>
         <v>-2792966.4</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="43">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="39">
         <f>O11*(1+G8)/(G23-G8)</f>
-        <v>25595.702524951368</v>
+        <v>26037.28032080226</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="20">
         <f>AVERAGE(G27:G28)</f>
-        <v>-1383685.3487375244</v>
+        <v>-1383464.5598395988</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -1590,76 +1590,76 @@
       <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="44">
+      <c r="G32" s="40">
         <f>1/(1+$G$23)^K5</f>
-        <v>0.94101031280050773</v>
-      </c>
-      <c r="H32" s="44">
+        <v>0.94303282911120401</v>
+      </c>
+      <c r="H32" s="40">
         <f t="shared" ref="H32:K32" si="1">1/(1+$G$23)^L5</f>
-        <v>0.8855004087969095</v>
-      </c>
-      <c r="I32" s="44">
+        <v>0.88931091678148111</v>
+      </c>
+      <c r="I32" s="40">
         <f t="shared" si="1"/>
-        <v>0.83326501666695729</v>
-      </c>
-      <c r="J32" s="44">
+        <v>0.83864938981191861</v>
+      </c>
+      <c r="J32" s="40">
         <f t="shared" si="1"/>
-        <v>0.78411097397949381</v>
-      </c>
-      <c r="K32" s="44">
+        <v>0.79087390670671853</v>
+      </c>
+      <c r="K32" s="40">
         <f t="shared" si="1"/>
-        <v>0.73785651289475429</v>
+        <v>0.7458200577118671</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="14">
         <f>K11*G32</f>
-        <v>-5017.3465385322679</v>
-      </c>
-      <c r="H33" s="17">
+        <v>-5028.1303366188131</v>
+      </c>
+      <c r="H33" s="14">
         <f t="shared" ref="H33:K33" si="2">L11*H32</f>
-        <v>349.67193403227839</v>
-      </c>
-      <c r="I33" s="17">
+        <v>351.17665123327993</v>
+      </c>
+      <c r="I33" s="14">
         <f t="shared" si="2"/>
-        <v>1915.191494822735</v>
-      </c>
-      <c r="J33" s="17">
+        <v>1927.5670361522273</v>
+      </c>
+      <c r="J33" s="14">
         <f t="shared" si="2"/>
-        <v>3555.0991184788368</v>
-      </c>
-      <c r="K33" s="17">
+        <v>3585.7617376421249</v>
+      </c>
+      <c r="K33" s="14">
         <f t="shared" si="2"/>
-        <v>2734.0713755949992</v>
+        <v>2763.5796872412793</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14">
         <f>K32*G29</f>
-        <v>-1020961.2463630317</v>
+        <v>-1031815.6178618924</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="41">
         <f>SUM(G33:K34)</f>
-        <v>-1017424.5589786351</v>
+        <v>-1028215.6630862424</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
       <c r="B38" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="12">
         <v>12280</v>
       </c>
     </row>
@@ -1690,43 +1690,43 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="46">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="42">
         <v>55490</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="14">
         <f>F35+F38-F41</f>
-        <v>-1060634.5589786351</v>
+        <v>-1071425.6630862425</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="46">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="42">
         <v>587</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="19">
         <f>F42/44</f>
-        <v>-24105.330885878069</v>
+        <v>-24350.583251960055</v>
       </c>
     </row>
   </sheetData>

--- a/Dow 30/Boeing/Boeing.xlsx
+++ b/Dow 30/Boeing/Boeing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\Boeing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32FC537-743D-41C6-B929-75F94D65810E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992893AC-8F6D-4767-B4CB-8239E0C7DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-6750" windowWidth="24240" windowHeight="18240" activeTab="1" xr2:uid="{DAC388C4-D724-482C-895B-0000854E6AB6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Street Estimates" sheetId="1" r:id="rId1"/>
     <sheet name="DCF Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95693578-5887-42F5-B5D3-D47946C01BB5}">
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H4:H30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dow 30/Boeing/Boeing.xlsx
+++ b/Dow 30/Boeing/Boeing.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\Boeing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992893AC-8F6D-4767-B4CB-8239E0C7DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EBA3CF-461A-4FD0-ABDB-6D9EA1D101B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-6750" windowWidth="24240" windowHeight="18240" activeTab="1" xr2:uid="{DAC388C4-D724-482C-895B-0000854E6AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{DAC388C4-D724-482C-895B-0000854E6AB6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Street Estimates" sheetId="1" r:id="rId1"/>
-    <sheet name="DCF Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Historical Data" sheetId="3" r:id="rId1"/>
+    <sheet name="Street Estimates" sheetId="1" r:id="rId2"/>
+    <sheet name="DCF Model" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>Ticker: BA</t>
   </si>
@@ -44,9 +45,6 @@
     <t>Current Share Price: $137.01</t>
   </si>
   <si>
-    <t>Income Statement:</t>
-  </si>
-  <si>
     <t>EBIT</t>
   </si>
   <si>
@@ -189,6 +187,87 @@
   </si>
   <si>
     <t>Shares Outstanding</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Cost of Revenues</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Gross Profit Margin</t>
+  </si>
+  <si>
+    <t>R&amp;D Expenses</t>
+  </si>
+  <si>
+    <t>General &amp; Admin Expenses</t>
+  </si>
+  <si>
+    <t>Other Expenses</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Net Interest Expenses</t>
+  </si>
+  <si>
+    <t>EBT, Unusual Items</t>
+  </si>
+  <si>
+    <t>Income Tax Expense</t>
+  </si>
+  <si>
+    <t>Net Income to Company</t>
+  </si>
+  <si>
+    <t>Net Income to Stockholders</t>
+  </si>
+  <si>
+    <t>(in Millions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  D&amp;A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Stock-Based Comp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Change in Accounts Receivable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Change in Inventories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Change in Other Net Operating Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Other Operating Activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cash from Operations</t>
+  </si>
+  <si>
+    <t>Capital Expenditures</t>
+  </si>
+  <si>
+    <t>Cash Acquisitions</t>
+  </si>
+  <si>
+    <t>Other Investments</t>
+  </si>
+  <si>
+    <t>Cash from Investing</t>
   </si>
 </sst>
 </file>
@@ -203,7 +282,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,7 +307,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF002060"/>
+      <color rgb="FF000099"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -343,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -357,23 +451,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -399,6 +481,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,6 +522,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF000099"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -713,11 +835,862 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDBB42A-DECE-4169-B06B-494D109AAA71}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="B2:N39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
+        <v>2</v>
+      </c>
+      <c r="L4" s="11">
+        <v>3</v>
+      </c>
+      <c r="M4" s="11">
+        <v>4</v>
+      </c>
+      <c r="N4" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6">
+        <v>2017</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2018</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2019</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2021</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2022</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2023</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2024</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2025</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="57">
+        <v>94005</v>
+      </c>
+      <c r="F6" s="56">
+        <v>101127</v>
+      </c>
+      <c r="G6" s="56">
+        <v>76559</v>
+      </c>
+      <c r="H6" s="56">
+        <v>58158</v>
+      </c>
+      <c r="I6" s="56">
+        <v>62286</v>
+      </c>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="51">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F7" s="52">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G7" s="52">
+        <v>-0.24299999999999999</v>
+      </c>
+      <c r="H7" s="52">
+        <v>-0.24</v>
+      </c>
+      <c r="I7" s="52">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="J7" s="49"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="45">
+        <v>-76612</v>
+      </c>
+      <c r="F9" s="46">
+        <v>-81490</v>
+      </c>
+      <c r="G9" s="46">
+        <v>-71800</v>
+      </c>
+      <c r="H9" s="46">
+        <v>-59356</v>
+      </c>
+      <c r="I9" s="46">
+        <v>-57096</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="55">
+        <v>17393</v>
+      </c>
+      <c r="F10" s="62">
+        <v>19637</v>
+      </c>
+      <c r="G10" s="62">
+        <v>4759</v>
+      </c>
+      <c r="H10" s="62">
+        <v>-1198</v>
+      </c>
+      <c r="I10" s="62">
+        <v>5190</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="51">
+        <v>0.185</v>
+      </c>
+      <c r="F11" s="52">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G11" s="52">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H11" s="52">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="I11" s="52">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J11" s="49"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="45">
+        <v>-3179</v>
+      </c>
+      <c r="F13" s="46">
+        <v>-3269</v>
+      </c>
+      <c r="G13" s="46">
+        <v>-3219</v>
+      </c>
+      <c r="H13" s="46">
+        <v>-2476</v>
+      </c>
+      <c r="I13" s="46">
+        <v>-2249</v>
+      </c>
+      <c r="J13" s="48"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="37">
+        <v>-4095</v>
+      </c>
+      <c r="F14" s="38">
+        <v>-4567</v>
+      </c>
+      <c r="G14" s="38">
+        <v>-3909</v>
+      </c>
+      <c r="H14" s="38">
+        <v>-4817</v>
+      </c>
+      <c r="I14" s="38">
+        <v>-4157</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="37">
+        <v>144</v>
+      </c>
+      <c r="F15" s="38">
+        <v>167</v>
+      </c>
+      <c r="G15" s="38">
+        <v>832</v>
+      </c>
+      <c r="H15" s="38">
+        <v>-3838</v>
+      </c>
+      <c r="I15" s="38">
+        <v>-1345</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="37">
+        <v>-7130</v>
+      </c>
+      <c r="F16" s="38">
+        <v>-7669</v>
+      </c>
+      <c r="G16" s="38">
+        <v>-6296</v>
+      </c>
+      <c r="H16" s="38">
+        <v>-11131</v>
+      </c>
+      <c r="I16" s="38">
+        <v>-7751</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60">
+        <v>10263</v>
+      </c>
+      <c r="F17" s="61">
+        <v>11968</v>
+      </c>
+      <c r="G17" s="61">
+        <v>-1537</v>
+      </c>
+      <c r="H17" s="61">
+        <v>-12329</v>
+      </c>
+      <c r="I17" s="61">
+        <v>-2561</v>
+      </c>
+      <c r="J17" s="49"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="45">
+        <v>-156</v>
+      </c>
+      <c r="F19" s="46">
+        <v>-364</v>
+      </c>
+      <c r="G19" s="46">
+        <v>-722</v>
+      </c>
+      <c r="H19" s="46">
+        <v>-2147</v>
+      </c>
+      <c r="I19" s="46">
+        <v>-2472</v>
+      </c>
+      <c r="J19" s="48"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="37">
+        <v>10107</v>
+      </c>
+      <c r="F20" s="38">
+        <v>11604</v>
+      </c>
+      <c r="G20" s="38">
+        <v>-2259</v>
+      </c>
+      <c r="H20" s="38">
+        <v>-14476</v>
+      </c>
+      <c r="I20" s="38">
+        <v>-5033</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="37">
+        <v>-1649</v>
+      </c>
+      <c r="F21" s="38">
+        <v>-1144</v>
+      </c>
+      <c r="G21" s="38">
+        <v>1623</v>
+      </c>
+      <c r="H21" s="38">
+        <v>2535</v>
+      </c>
+      <c r="I21" s="38">
+        <v>743</v>
+      </c>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60">
+        <v>8458</v>
+      </c>
+      <c r="F22" s="61">
+        <v>10460</v>
+      </c>
+      <c r="G22" s="61">
+        <v>-646</v>
+      </c>
+      <c r="H22" s="61">
+        <v>-11941</v>
+      </c>
+      <c r="I22" s="61">
+        <v>-4290</v>
+      </c>
+      <c r="J22" s="49"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65">
+        <v>8458</v>
+      </c>
+      <c r="F24" s="66">
+        <v>10460</v>
+      </c>
+      <c r="G24" s="66">
+        <v>-636</v>
+      </c>
+      <c r="H24" s="66">
+        <v>-11873</v>
+      </c>
+      <c r="I24" s="66">
+        <v>-4202</v>
+      </c>
+      <c r="J24" s="50"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="37">
+        <v>2047</v>
+      </c>
+      <c r="F25" s="54">
+        <v>2114</v>
+      </c>
+      <c r="G25" s="54">
+        <v>2271</v>
+      </c>
+      <c r="H25" s="54">
+        <v>2246</v>
+      </c>
+      <c r="I25" s="54">
+        <v>2144</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="37">
+        <v>212</v>
+      </c>
+      <c r="F26" s="54">
+        <v>213</v>
+      </c>
+      <c r="G26" s="54">
+        <v>217</v>
+      </c>
+      <c r="H26" s="54">
+        <v>445</v>
+      </c>
+      <c r="I26" s="54">
+        <v>2066</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="37">
+        <v>-2440</v>
+      </c>
+      <c r="F27" s="54">
+        <v>-2621</v>
+      </c>
+      <c r="G27" s="54">
+        <v>1585</v>
+      </c>
+      <c r="H27" s="54">
+        <v>1828</v>
+      </c>
+      <c r="I27" s="54">
+        <v>-1299</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="37">
+        <v>-1403</v>
+      </c>
+      <c r="F28" s="54">
+        <v>568</v>
+      </c>
+      <c r="G28" s="54">
+        <v>-12391</v>
+      </c>
+      <c r="H28" s="54">
+        <v>-11002</v>
+      </c>
+      <c r="I28" s="54">
+        <v>-1127</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="37">
+        <v>609</v>
+      </c>
+      <c r="F29" s="38">
+        <v>1879</v>
+      </c>
+      <c r="G29" s="38">
+        <v>6316</v>
+      </c>
+      <c r="H29" s="38">
+        <v>838</v>
+      </c>
+      <c r="I29" s="38">
+        <v>-4006</v>
+      </c>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="37">
+        <v>5863</v>
+      </c>
+      <c r="F30" s="38">
+        <v>2709</v>
+      </c>
+      <c r="G30" s="38">
+        <v>192</v>
+      </c>
+      <c r="H30" s="38">
+        <v>-892</v>
+      </c>
+      <c r="I30" s="38">
+        <v>3008</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="60">
+        <v>13346</v>
+      </c>
+      <c r="F31" s="61">
+        <v>15322</v>
+      </c>
+      <c r="G31" s="61">
+        <v>-2446</v>
+      </c>
+      <c r="H31" s="61">
+        <v>-18410</v>
+      </c>
+      <c r="I31" s="61">
+        <v>-3416</v>
+      </c>
+      <c r="J31" s="49"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="22"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="57">
+        <v>12160</v>
+      </c>
+      <c r="F33" s="58">
+        <v>13957</v>
+      </c>
+      <c r="G33" s="58">
+        <v>169</v>
+      </c>
+      <c r="H33" s="58">
+        <v>-5921</v>
+      </c>
+      <c r="I33" s="58">
+        <v>1457</v>
+      </c>
+      <c r="J33" s="48"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="60">
+        <v>10113</v>
+      </c>
+      <c r="F34" s="61">
+        <v>11843</v>
+      </c>
+      <c r="G34" s="61">
+        <v>-2102</v>
+      </c>
+      <c r="H34" s="61">
+        <v>-8167</v>
+      </c>
+      <c r="I34" s="61">
+        <v>-687</v>
+      </c>
+      <c r="J34" s="49"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E35" s="48"/>
+      <c r="J35" s="48"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="57">
+        <v>-1739</v>
+      </c>
+      <c r="F36" s="58">
+        <v>-1722</v>
+      </c>
+      <c r="G36" s="58">
+        <v>-1834</v>
+      </c>
+      <c r="H36" s="58">
+        <v>-1303</v>
+      </c>
+      <c r="I36" s="58">
+        <v>-980</v>
+      </c>
+      <c r="J36" s="48"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="37">
+        <v>-324</v>
+      </c>
+      <c r="F37" s="38">
+        <v>-3230</v>
+      </c>
+      <c r="G37" s="38">
+        <v>-455</v>
+      </c>
+      <c r="H37" s="38">
+        <v>0</v>
+      </c>
+      <c r="I37" s="38">
+        <v>-6</v>
+      </c>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="37">
+        <v>5</v>
+      </c>
+      <c r="F38" s="38">
+        <v>331</v>
+      </c>
+      <c r="G38" s="38">
+        <v>759</v>
+      </c>
+      <c r="H38" s="38">
+        <v>-13063</v>
+      </c>
+      <c r="I38" s="38">
+        <v>10310</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="55">
+        <v>-2058</v>
+      </c>
+      <c r="F39" s="56">
+        <v>-4621</v>
+      </c>
+      <c r="G39" s="56">
+        <v>-1530</v>
+      </c>
+      <c r="H39" s="56">
+        <v>-18366</v>
+      </c>
+      <c r="I39" s="56">
+        <v>9324</v>
+      </c>
+      <c r="J39" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+  </mergeCells>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4839441-CC04-4FF9-BB5C-2A4D64C6BC0B}">
   <dimension ref="B1:N16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,20 +1722,20 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E4" s="10"/>
@@ -788,7 +1761,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -825,322 +1798,322 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="21">
+        <v>5</v>
+      </c>
+      <c r="E6" s="37">
         <v>10133</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="38">
         <v>11849</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="38">
         <v>-2102</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="38">
         <v>-8167</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="39">
         <v>-687</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21">
+        <v>6</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="37">
         <v>4962</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="38">
         <v>9276</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="38">
         <v>10759</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="38">
         <v>12472</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="38">
         <v>12360</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="21">
+        <v>7</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="37">
         <v>3208</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="38">
         <v>7583</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="38">
         <v>9258</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="38">
         <v>10702</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="38">
         <v>11377</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="24">
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="40">
         <v>1593</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="41">
         <v>5769</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="41">
         <v>7847</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="41">
         <v>9910</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="41">
         <v>10393</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="18">
+        <v>9</v>
+      </c>
+      <c r="E10" s="42">
         <f>E6*16.3%</f>
         <v>1651.6790000000001</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="43">
         <f>F6*9.9%</f>
         <v>1173.0510000000002</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="43">
         <v>-1623</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="43">
         <v>-2535</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="43">
         <v>-743</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="47">
         <v>0</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <f>5%*K8</f>
         <v>379.15000000000003</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="17">
         <f>10%*L8</f>
         <v>925.80000000000007</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="17">
         <f>15%*M8</f>
         <v>1605.3</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="17">
         <f>20%*N8</f>
         <v>2275.4</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="27">
+      <c r="E11" s="44">
         <v>2047</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="43">
         <v>2114</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="43">
         <v>2271</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="43">
         <v>2246</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="43">
         <v>2144</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="44">
         <v>2042</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="43">
         <v>2092</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="43">
         <v>2603</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="43">
         <v>3391</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="43">
         <v>2477</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="21">
+        <v>11</v>
+      </c>
+      <c r="E12" s="37">
         <v>1739</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="38">
         <v>1722</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="38">
         <v>1834</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="38">
         <v>1303</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="38">
         <v>980</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="21">
+        <v>6</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="37">
         <v>1704</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="38">
         <v>2156</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="38">
         <v>2393</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="38">
         <v>2375</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="38">
         <v>2550</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="21">
+        <v>7</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="37">
         <v>1367</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="38">
         <v>1612</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="38">
         <v>1756</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="38">
         <v>1823</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="38">
         <v>2380</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="21">
+        <v>8</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="37">
         <v>1099</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="38">
         <v>1200</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="38">
         <v>1200</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="38">
         <v>1200</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="38">
         <v>2209</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="28">
+      <c r="E16" s="45">
         <v>-989</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="46">
         <v>-366</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="46">
         <v>-1979</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="46">
         <v>-9833</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="46">
         <v>-11694</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="45">
         <f>I16-(I16*21.2%)</f>
         <v>-9214.8719999999994</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="46">
         <f>J16-(J16*20.9%)</f>
         <v>-7288.9637519999997</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="46">
         <f>K16-(K16*5.6%)</f>
         <v>-6880.7817818879994</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="46">
         <f>L16-(L16*10.9%)</f>
         <v>-6130.7765676622075</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="46">
         <f>M16-(M16*10.4%)</f>
         <v>-5493.1758046253381</v>
       </c>
@@ -1155,12 +2128,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95693578-5887-42F5-B5D3-D47946C01BB5}">
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,74 +2153,74 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="B5" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
       <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="32">
+        <v>17</v>
+      </c>
+      <c r="J5" s="20">
         <v>2017</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="19">
         <v>1</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="19">
         <v>2</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="19">
         <v>3</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="19">
         <v>4</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="13">
+        <v>2</v>
+      </c>
+      <c r="J6" s="35">
         <f>'Street Estimates'!E6</f>
         <v>10133</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="36">
         <f>'Street Estimates'!J8</f>
         <v>3208</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="36">
         <f>'Street Estimates'!K8</f>
         <v>7583</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="36">
         <f>'Street Estimates'!L8</f>
         <v>9258</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="36">
         <f>'Street Estimates'!M8</f>
         <v>10702</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="36">
         <f>'Street Estimates'!N8</f>
         <v>11377</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1255,200 +2228,200 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="13">
+        <v>18</v>
+      </c>
+      <c r="J7" s="35">
         <f>-'Street Estimates'!E10</f>
         <v>-1651.6790000000001</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="36">
         <f>'Street Estimates'!J10</f>
         <v>0</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="36">
         <f>-'Street Estimates'!K10</f>
         <v>-379.15000000000003</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="36">
         <f>-'Street Estimates'!L10</f>
         <v>-925.80000000000007</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="36">
         <f>-'Street Estimates'!M10</f>
         <v>-1605.3</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="36">
         <f>-'Street Estimates'!N10</f>
         <v>-2275.4</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="33">
+        <v>22</v>
+      </c>
+      <c r="G8" s="21">
         <v>-7.17E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="13">
+        <v>10</v>
+      </c>
+      <c r="J8" s="35">
         <f>'Street Estimates'!E11</f>
         <v>2047</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="36">
         <f>'Street Estimates'!J11</f>
         <v>2042</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="36">
         <f>'Street Estimates'!K11</f>
         <v>2092</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="36">
         <f>'Street Estimates'!L11</f>
         <v>2603</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="36">
         <f>'Street Estimates'!M11</f>
         <v>3391</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="36">
         <f>'Street Estimates'!N11</f>
         <v>2477</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9">
         <v>-201.6</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="13">
+        <v>19</v>
+      </c>
+      <c r="J9" s="35">
         <f>-'Street Estimates'!E12</f>
         <v>-1739</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="36">
         <f>-'Street Estimates'!J14</f>
         <v>-1367</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="36">
         <f>-'Street Estimates'!K14</f>
         <v>-1612</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="36">
         <f>-'Street Estimates'!L14</f>
         <v>-1756</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="36">
         <f>-'Street Estimates'!M14</f>
         <v>-1823</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="36">
         <f>-'Street Estimates'!N14</f>
         <v>-2380</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="33">
+        <v>24</v>
+      </c>
+      <c r="G10" s="21">
         <v>6.2E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="13">
+        <v>20</v>
+      </c>
+      <c r="J10" s="35">
         <f>'Street Estimates'!E16</f>
         <v>-989</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="36">
         <f>'Street Estimates'!J16</f>
         <v>-9214.8719999999994</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="36">
         <f>'Street Estimates'!K16</f>
         <v>-7288.9637519999997</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="36">
         <f>'Street Estimates'!L16</f>
         <v>-6880.7817818879994</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="36">
         <f>'Street Estimates'!M16</f>
         <v>-6130.7765676622075</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="36">
         <f>'Street Estimates'!N16</f>
         <v>-5493.1758046253381</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="33">
+        <v>25</v>
+      </c>
+      <c r="G11" s="21">
         <v>0.14799999999999999</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="16">
+      <c r="I11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="14">
         <f>SUM(J6:J10)</f>
         <v>7800.3209999999999</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="15">
         <f>SUM(K6:K10)</f>
         <v>-5331.8719999999994</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="15">
         <f t="shared" ref="L11:O11" si="0">SUM(L6:L10)</f>
         <v>394.88624800000071</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="15">
         <f t="shared" si="0"/>
         <v>2298.4182181120013</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="15">
         <f t="shared" si="0"/>
         <v>4533.9234323377932</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="15">
         <f t="shared" si="0"/>
         <v>3705.4241953746623</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="33">
+        <v>26</v>
+      </c>
+      <c r="G12" s="21">
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="33">
+        <v>27</v>
+      </c>
+      <c r="G14" s="21">
         <v>1.37E-2</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="33">
+        <v>28</v>
+      </c>
+      <c r="G15" s="21">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="12">
         <v>-15000</v>
@@ -1456,7 +2429,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="12">
         <v>59641</v>
@@ -1464,7 +2437,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1474,47 +2447,47 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="33">
+        <v>32</v>
+      </c>
+      <c r="G20" s="21">
         <f>G12+G14*(G15-G12)</f>
         <v>3.0252110000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="37">
+        <v>33</v>
+      </c>
+      <c r="G21" s="25">
         <f>G17/SUM(G16:G17)</f>
         <v>1.3360139781814924</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="38">
+      <c r="G22" s="26">
         <f>G16/SUM(G16:G17)</f>
         <v>-0.33601397818149237</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="36">
+      <c r="B23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="24">
         <f>G22*G20+G21*G10*(1-G11)</f>
         <v>6.0408470553975045E-2</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1524,47 +2497,47 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="14">
+        <v>36</v>
+      </c>
+      <c r="G26" s="13">
         <f>O6+O8</f>
         <v>13854</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="20">
+        <v>23</v>
+      </c>
+      <c r="G27" s="17">
         <f>G26*G9</f>
         <v>-2792966.4</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="39">
+      <c r="G28" s="27">
         <f>O11*(1+G8)/(G23-G8)</f>
         <v>26037.28032080226</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="20">
+        <v>38</v>
+      </c>
+      <c r="G29" s="17">
         <f>AVERAGE(G27:G28)</f>
         <v>-1383464.5598395988</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1588,83 +2561,83 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="40">
+        <v>40</v>
+      </c>
+      <c r="G32" s="28">
         <f>1/(1+$G$23)^K5</f>
         <v>0.94303282911120401</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="28">
         <f t="shared" ref="H32:K32" si="1">1/(1+$G$23)^L5</f>
         <v>0.88931091678148111</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="28">
         <f t="shared" si="1"/>
         <v>0.83864938981191861</v>
       </c>
-      <c r="J32" s="40">
+      <c r="J32" s="28">
         <f t="shared" si="1"/>
         <v>0.79087390670671853</v>
       </c>
-      <c r="K32" s="40">
+      <c r="K32" s="28">
         <f t="shared" si="1"/>
         <v>0.7458200577118671</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="14">
+        <v>41</v>
+      </c>
+      <c r="G33" s="13">
         <f>K11*G32</f>
         <v>-5028.1303366188131</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="13">
         <f t="shared" ref="H33:K33" si="2">L11*H32</f>
         <v>351.17665123327993</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="13">
         <f t="shared" si="2"/>
         <v>1927.5670361522273</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="13">
         <f t="shared" si="2"/>
         <v>3585.7617376421249</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="13">
         <f t="shared" si="2"/>
         <v>2763.5796872412793</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14">
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13">
         <f>K32*G29</f>
         <v>-1031815.6178618924</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="41">
+        <v>43</v>
+      </c>
+      <c r="F35" s="29">
         <f>SUM(G33:K34)</f>
         <v>-1028215.6630862424</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1673,7 +2646,7 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" s="12">
         <v>12280</v>
@@ -1681,50 +2654,50 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="42">
+      <c r="F41" s="30">
         <v>55490</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="14">
+        <v>29</v>
+      </c>
+      <c r="F42" s="13">
         <f>F35+F38-F41</f>
         <v>-1071425.6630862425</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="42">
+      <c r="F44" s="30">
         <v>587</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="19">
+      <c r="B45" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="16">
         <f>F42/44</f>
         <v>-24350.583251960055</v>
       </c>

--- a/Dow 30/Boeing/Boeing.xlsx
+++ b/Dow 30/Boeing/Boeing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\Boeing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Boeing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EBA3CF-461A-4FD0-ABDB-6D9EA1D101B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965C8735-5FE0-4063-B407-10489E3528FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{DAC388C4-D724-482C-895B-0000854E6AB6}"/>
+    <workbookView xWindow="23880" yWindow="-7830" windowWidth="24240" windowHeight="18240" activeTab="2" xr2:uid="{DAC388C4-D724-482C-895B-0000854E6AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical Data" sheetId="3" r:id="rId1"/>
@@ -437,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -469,18 +469,6 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -515,6 +503,21 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,7 +844,7 @@
   </sheetPr>
   <dimension ref="B2:N39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
@@ -865,20 +868,20 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="31" t="s">
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E4" s="10"/>
@@ -945,22 +948,22 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="57">
+      <c r="E6" s="53">
         <v>94005</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="52">
         <v>101127</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="52">
         <v>76559</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="52">
         <v>58158</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="52">
         <v>62286</v>
       </c>
-      <c r="J6" s="48"/>
+      <c r="J6" s="44"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -968,33 +971,33 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="51">
+      <c r="E7" s="47">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="48">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="48">
         <v>-0.24299999999999999</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="48">
         <v>-0.24</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="48">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="J7" s="49"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -1003,22 +1006,22 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="45">
+      <c r="E9" s="41">
         <v>-76612</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="42">
         <v>-81490</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="42">
         <v>-71800</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="42">
         <v>-59356</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="42">
         <v>-57096</v>
       </c>
-      <c r="J9" s="48"/>
+      <c r="J9" s="44"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1030,19 +1033,19 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="55">
+      <c r="E10" s="51">
         <v>17393</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="58">
         <v>19637</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="58">
         <v>4759</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="58">
         <v>-1198</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="58">
         <v>5190</v>
       </c>
       <c r="J10" s="5"/>
@@ -1053,33 +1056,33 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="51">
+      <c r="E11" s="47">
         <v>0.185</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="48">
         <v>0.19400000000000001</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="48">
         <v>6.2E-2</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="48">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="48">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="J11" s="49"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -1088,22 +1091,22 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="45">
+      <c r="E13" s="41">
         <v>-3179</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="42">
         <v>-3269</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="42">
         <v>-3219</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="42">
         <v>-2476</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="42">
         <v>-2249</v>
       </c>
-      <c r="J13" s="48"/>
+      <c r="J13" s="44"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -1113,19 +1116,19 @@
       <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="33">
         <v>-4095</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="34">
         <v>-4567</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="34">
         <v>-3909</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="34">
         <v>-4817</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="34">
         <v>-4157</v>
       </c>
       <c r="J14" s="5"/>
@@ -1134,19 +1137,19 @@
       <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="33">
         <v>144</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="34">
         <v>167</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="34">
         <v>832</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="34">
         <v>-3838</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="34">
         <v>-1345</v>
       </c>
       <c r="J15" s="5"/>
@@ -1155,56 +1158,56 @@
       <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="33">
         <v>-7130</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="34">
         <v>-7669</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="34">
         <v>-6296</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="34">
         <v>-11131</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="34">
         <v>-7751</v>
       </c>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56">
         <v>10263</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="57">
         <v>11968</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="57">
         <v>-1537</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="57">
         <v>-12329</v>
       </c>
-      <c r="I17" s="61">
+      <c r="I17" s="57">
         <v>-2561</v>
       </c>
-      <c r="J17" s="49"/>
+      <c r="J17" s="45"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -1213,22 +1216,22 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="45">
+      <c r="E19" s="41">
         <v>-156</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="42">
         <v>-364</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="42">
         <v>-722</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="42">
         <v>-2147</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="42">
         <v>-2472</v>
       </c>
-      <c r="J19" s="48"/>
+      <c r="J19" s="44"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -1238,19 +1241,19 @@
       <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="33">
         <v>10107</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="34">
         <v>11604</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="34">
         <v>-2259</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="34">
         <v>-14476</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="34">
         <v>-5033</v>
       </c>
       <c r="J20" s="5"/>
@@ -1259,80 +1262,80 @@
       <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="33">
         <v>-1649</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="34">
         <v>-1144</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="34">
         <v>1623</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="34">
         <v>2535</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="34">
         <v>743</v>
       </c>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60">
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56">
         <v>8458</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="57">
         <v>10460</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="57">
         <v>-646</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H22" s="57">
         <v>-11941</v>
       </c>
-      <c r="I22" s="61">
+      <c r="I22" s="57">
         <v>-4290</v>
       </c>
-      <c r="J22" s="49"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65">
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61">
         <v>8458</v>
       </c>
-      <c r="F24" s="66">
+      <c r="F24" s="62">
         <v>10460</v>
       </c>
-      <c r="G24" s="66">
+      <c r="G24" s="62">
         <v>-636</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="62">
         <v>-11873</v>
       </c>
-      <c r="I24" s="66">
+      <c r="I24" s="62">
         <v>-4202</v>
       </c>
-      <c r="J24" s="50"/>
+      <c r="J24" s="46"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -1342,127 +1345,127 @@
       <c r="B25" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="37">
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="33">
         <v>2047</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="50">
         <v>2114</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="50">
         <v>2271</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="50">
         <v>2246</v>
       </c>
-      <c r="I25" s="54">
+      <c r="I25" s="50">
         <v>2144</v>
       </c>
       <c r="J25" s="5"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="37">
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="33">
         <v>212</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="50">
         <v>213</v>
       </c>
-      <c r="G26" s="54">
+      <c r="G26" s="50">
         <v>217</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="50">
         <v>445</v>
       </c>
-      <c r="I26" s="54">
+      <c r="I26" s="50">
         <v>2066</v>
       </c>
       <c r="J26" s="5"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="37">
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="33">
         <v>-2440</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="50">
         <v>-2621</v>
       </c>
-      <c r="G27" s="54">
+      <c r="G27" s="50">
         <v>1585</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="50">
         <v>1828</v>
       </c>
-      <c r="I27" s="54">
+      <c r="I27" s="50">
         <v>-1299</v>
       </c>
       <c r="J27" s="5"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="37">
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="33">
         <v>-1403</v>
       </c>
-      <c r="F28" s="54">
+      <c r="F28" s="50">
         <v>568</v>
       </c>
-      <c r="G28" s="54">
+      <c r="G28" s="50">
         <v>-12391</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="50">
         <v>-11002</v>
       </c>
-      <c r="I28" s="54">
+      <c r="I28" s="50">
         <v>-1127</v>
       </c>
       <c r="J28" s="5"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="33">
         <v>609</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="34">
         <v>1879</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="34">
         <v>6316</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="34">
         <v>838</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="34">
         <v>-4006</v>
       </c>
       <c r="J29" s="5"/>
@@ -1471,45 +1474,45 @@
       <c r="B30" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="33">
         <v>5863</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="34">
         <v>2709</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="34">
         <v>192</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="34">
         <v>-892</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="34">
         <v>3008</v>
       </c>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="60">
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56">
         <v>13346</v>
       </c>
-      <c r="F31" s="61">
+      <c r="F31" s="57">
         <v>15322</v>
       </c>
-      <c r="G31" s="61">
+      <c r="G31" s="57">
         <v>-2446</v>
       </c>
-      <c r="H31" s="61">
+      <c r="H31" s="57">
         <v>-18410</v>
       </c>
-      <c r="I31" s="61">
+      <c r="I31" s="57">
         <v>-3416</v>
       </c>
-      <c r="J31" s="49"/>
+      <c r="J31" s="45"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -1517,11 +1520,11 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="22"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
@@ -1530,123 +1533,123 @@
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="57">
+      <c r="E33" s="53">
         <v>12160</v>
       </c>
-      <c r="F33" s="58">
+      <c r="F33" s="54">
         <v>13957</v>
       </c>
-      <c r="G33" s="58">
+      <c r="G33" s="54">
         <v>169</v>
       </c>
-      <c r="H33" s="58">
+      <c r="H33" s="54">
         <v>-5921</v>
       </c>
-      <c r="I33" s="58">
+      <c r="I33" s="54">
         <v>1457</v>
       </c>
-      <c r="J33" s="48"/>
+      <c r="J33" s="44"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60">
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56">
         <v>10113</v>
       </c>
-      <c r="F34" s="61">
+      <c r="F34" s="57">
         <v>11843</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34" s="57">
         <v>-2102</v>
       </c>
-      <c r="H34" s="61">
+      <c r="H34" s="57">
         <v>-8167</v>
       </c>
-      <c r="I34" s="61">
+      <c r="I34" s="57">
         <v>-687</v>
       </c>
-      <c r="J34" s="49"/>
+      <c r="J34" s="45"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E35" s="48"/>
-      <c r="J35" s="48"/>
+      <c r="E35" s="44"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="64" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="57">
+      <c r="E36" s="53">
         <v>-1739</v>
       </c>
-      <c r="F36" s="58">
+      <c r="F36" s="54">
         <v>-1722</v>
       </c>
-      <c r="G36" s="58">
+      <c r="G36" s="54">
         <v>-1834</v>
       </c>
-      <c r="H36" s="58">
+      <c r="H36" s="54">
         <v>-1303</v>
       </c>
-      <c r="I36" s="58">
+      <c r="I36" s="54">
         <v>-980</v>
       </c>
-      <c r="J36" s="48"/>
+      <c r="J36" s="44"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="33">
         <v>-324</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="34">
         <v>-3230</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="34">
         <v>-455</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="34">
         <v>0</v>
       </c>
-      <c r="I37" s="38">
+      <c r="I37" s="34">
         <v>-6</v>
       </c>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="33">
         <v>5</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="34">
         <v>331</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="34">
         <v>759</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="34">
         <v>-13063</v>
       </c>
-      <c r="I38" s="38">
+      <c r="I38" s="34">
         <v>10310</v>
       </c>
       <c r="J38" s="5"/>
@@ -1657,19 +1660,19 @@
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="55">
+      <c r="E39" s="51">
         <v>-2058</v>
       </c>
-      <c r="F39" s="56">
+      <c r="F39" s="52">
         <v>-4621</v>
       </c>
-      <c r="G39" s="56">
+      <c r="G39" s="52">
         <v>-1530</v>
       </c>
-      <c r="H39" s="56">
+      <c r="H39" s="52">
         <v>-18366</v>
       </c>
-      <c r="I39" s="56">
+      <c r="I39" s="52">
         <v>9324</v>
       </c>
       <c r="J39" s="5"/>
@@ -1690,7 +1693,7 @@
   <dimension ref="B1:N16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="K10" sqref="K10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,20 +1725,20 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="31" t="s">
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E4" s="10"/>
@@ -1800,49 +1803,49 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="33">
         <v>10133</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="34">
         <v>11849</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="34">
         <v>-2102</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="34">
         <v>-8167</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="35">
         <v>-687</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="37">
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="33">
         <v>4962</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="34">
         <v>9276</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="34">
         <v>10759</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7" s="34">
         <v>12472</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="34">
         <v>12360</v>
       </c>
     </row>
@@ -1850,24 +1853,24 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="37">
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="33">
         <v>3208</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="34">
         <v>7583</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="34">
         <v>9258</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="34">
         <v>10702</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="34">
         <v>11377</v>
       </c>
     </row>
@@ -1877,24 +1880,24 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="40">
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="36">
         <v>1593</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="37">
         <v>5769</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="37">
         <v>7847</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="37">
         <v>9910</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="37">
         <v>10393</v>
       </c>
     </row>
@@ -1902,24 +1905,24 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="38">
         <f>E6*16.3%</f>
         <v>1651.6790000000001</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="39">
         <f>F6*9.9%</f>
         <v>1173.0510000000002</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="39">
         <v>-1623</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="39">
         <v>-2535</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="39">
         <v>-743</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="43">
         <v>0</v>
       </c>
       <c r="K10" s="13">
@@ -1945,34 +1948,34 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="44">
+      <c r="E11" s="40">
         <v>2047</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="39">
         <v>2114</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="39">
         <v>2271</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="39">
         <v>2246</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="39">
         <v>2144</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="40">
         <v>2042</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="39">
         <v>2092</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="39">
         <v>2603</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="39">
         <v>3391</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="39">
         <v>2477</v>
       </c>
     </row>
@@ -1980,49 +1983,49 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="33">
         <v>1739</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="34">
         <v>1722</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="34">
         <v>1834</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="34">
         <v>1303</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="34">
         <v>980</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="37">
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="33">
         <v>1704</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="34">
         <v>2156</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="34">
         <v>2393</v>
       </c>
-      <c r="M13" s="38">
+      <c r="M13" s="34">
         <v>2375</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="34">
         <v>2550</v>
       </c>
     </row>
@@ -2030,24 +2033,24 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="37">
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="33">
         <v>1367</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="34">
         <v>1612</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="34">
         <v>1756</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="34">
         <v>1823</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="34">
         <v>2380</v>
       </c>
     </row>
@@ -2055,24 +2058,24 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="37">
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="33">
         <v>1099</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="34">
         <v>1200</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="34">
         <v>1200</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="34">
         <v>1200</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="34">
         <v>2209</v>
       </c>
     </row>
@@ -2082,38 +2085,38 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="45">
+      <c r="E16" s="41">
         <v>-989</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="42">
         <v>-366</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="42">
         <v>-1979</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="42">
         <v>-9833</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="42">
         <v>-11694</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="41">
         <f>I16-(I16*21.2%)</f>
         <v>-9214.8719999999994</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="42">
         <f>J16-(J16*20.9%)</f>
         <v>-7288.9637519999997</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="42">
         <f>K16-(K16*5.6%)</f>
         <v>-6880.7817818879994</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="42">
         <f>L16-(L16*10.9%)</f>
         <v>-6130.7765676622075</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="42">
         <f>M16-(M16*10.4%)</f>
         <v>-5493.1758046253381</v>
       </c>
@@ -2132,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95693578-5887-42F5-B5D3-D47946C01BB5}">
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2159,14 +2162,14 @@
       <c r="D3" s="1"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
       <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
@@ -2193,27 +2196,27 @@
       <c r="I6" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="31">
         <f>'Street Estimates'!E6</f>
         <v>10133</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="32">
         <f>'Street Estimates'!J8</f>
         <v>3208</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="32">
         <f>'Street Estimates'!K8</f>
         <v>7583</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="32">
         <f>'Street Estimates'!L8</f>
         <v>9258</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="32">
         <f>'Street Estimates'!M8</f>
         <v>10702</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="32">
         <f>'Street Estimates'!N8</f>
         <v>11377</v>
       </c>
@@ -2230,27 +2233,27 @@
       <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="31">
         <f>-'Street Estimates'!E10</f>
         <v>-1651.6790000000001</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="32">
         <f>'Street Estimates'!J10</f>
         <v>0</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="32">
         <f>-'Street Estimates'!K10</f>
         <v>-379.15000000000003</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="32">
         <f>-'Street Estimates'!L10</f>
         <v>-925.80000000000007</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="32">
         <f>-'Street Estimates'!M10</f>
         <v>-1605.3</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="32">
         <f>-'Street Estimates'!N10</f>
         <v>-2275.4</v>
       </c>
@@ -2265,27 +2268,27 @@
       <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="31">
         <f>'Street Estimates'!E11</f>
         <v>2047</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="32">
         <f>'Street Estimates'!J11</f>
         <v>2042</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="32">
         <f>'Street Estimates'!K11</f>
         <v>2092</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="32">
         <f>'Street Estimates'!L11</f>
         <v>2603</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="32">
         <f>'Street Estimates'!M11</f>
         <v>3391</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="32">
         <f>'Street Estimates'!N11</f>
         <v>2477</v>
       </c>
@@ -2300,27 +2303,27 @@
       <c r="I9" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="31">
         <f>-'Street Estimates'!E12</f>
         <v>-1739</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="32">
         <f>-'Street Estimates'!J14</f>
         <v>-1367</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="32">
         <f>-'Street Estimates'!K14</f>
         <v>-1612</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="32">
         <f>-'Street Estimates'!L14</f>
         <v>-1756</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="32">
         <f>-'Street Estimates'!M14</f>
         <v>-1823</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="32">
         <f>-'Street Estimates'!N14</f>
         <v>-2380</v>
       </c>
@@ -2335,27 +2338,27 @@
       <c r="I10" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="31">
         <f>'Street Estimates'!E16</f>
         <v>-989</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="32">
         <f>'Street Estimates'!J16</f>
         <v>-9214.8719999999994</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="32">
         <f>'Street Estimates'!K16</f>
         <v>-7288.9637519999997</v>
       </c>
-      <c r="M10" s="36">
+      <c r="M10" s="32">
         <f>'Street Estimates'!L16</f>
         <v>-6880.7817818879994</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="32">
         <f>'Street Estimates'!M16</f>
         <v>-6130.7765676622075</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="32">
         <f>'Street Estimates'!N16</f>
         <v>-5493.1758046253381</v>
       </c>
@@ -2648,7 +2651,7 @@
       <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="69">
         <v>12280</v>
       </c>
     </row>
@@ -2656,11 +2659,13 @@
       <c r="B39" t="s">
         <v>46</v>
       </c>
+      <c r="F39" s="70"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>47</v>
       </c>
+      <c r="F40" s="70"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
@@ -2669,7 +2674,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="30">
+      <c r="F41" s="71">
         <v>55490</v>
       </c>
     </row>
